--- a/templates/GSIS.xlsx
+++ b/templates/GSIS.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="80">
   <si>
     <t xml:space="preserve"> Fund Cluster :  </t>
   </si>
@@ -244,6 +244,30 @@
   <si>
     <t>Official Receipt No. &amp; Date/Other Documents</t>
   </si>
+  <si>
+    <t>Fund Cluster:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Date:</t>
+  </si>
+  <si>
+    <t>BIR</t>
+  </si>
+  <si>
+    <t>Calamba, City</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            </t>
+  </si>
+  <si>
+    <t>2 02 01 010</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
 </sst>
 </file>
 
@@ -258,7 +282,7 @@
     <numFmt numFmtId="177" formatCode="dd\-mmm\-yy"/>
     <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@"/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -422,6 +446,33 @@
       <color theme="1"/>
       <name val="Cambria"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -1420,137 +1471,137 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="4" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="4" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="5" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="378">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2053,6 +2104,159 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2072,12 +2276,346 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="25" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="20" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2094,6 +2632,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3368,6 +3909,1011 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="6686550" cy="1304925"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Shape 25"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19050" y="32308800"/>
+          <a:ext cx="6686550" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-GB"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>National Hi-way,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Rizal St., Brgy. Sta. Clara Sur, Pila, Laguna, Philippines</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Tel. Nos.: (049) 559 0722 (Administrative) • 559 0723 (Engineering) • 502-0145 (COA) • 559 0727 (Regional Manager)</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t> • 576 5543 (Equipment) • 559-0724 (Finance) Telefax No.: (049) 559 0726</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Email:r4a@nia.gov.ph●Website: region4a.nia.gov.ph  Facebook: www.facebook.com/region4a.nia.gov.ph</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="Helvetica Neue"/>
+              <a:ea typeface="Helvetica Neue"/>
+              <a:cs typeface="Helvetica Neue"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>TIN: 000916415043</a:t>
+          </a:r>
+          <a:endParaRPr sz="900">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:solidFill>
+              <a:srgbClr val="3A7D22"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClr>
+              <a:srgbClr val="000000"/>
+            </a:buClr>
+            <a:buSzPts val="900"/>
+            <a:buFont typeface="Arial" panose="020B0604020202020204"/>
+            <a:buNone/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" i="1">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204"/>
+              <a:ea typeface="Arial" panose="020B0604020202020204"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204"/>
+              <a:sym typeface="Arial" panose="020B0604020202020204"/>
+            </a:rPr>
+            <a:t>NIA-RO-AFD-FIN-INT-Form-209-Rev00</a:t>
+          </a:r>
+          <a:endParaRPr sz="900" i="1">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="900" i="1">
+            <a:latin typeface="Arial" panose="020B0604020202020204"/>
+            <a:ea typeface="Arial" panose="020B0604020202020204"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204"/>
+            <a:sym typeface="Arial" panose="020B0604020202020204"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr sz="800">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buNone/>
+          </a:pPr>
+          <a:endParaRPr lang="en-GB" altLang="en-US" sz="800">
+            <a:latin typeface="Helvetica Neue"/>
+            <a:ea typeface="Helvetica Neue"/>
+            <a:cs typeface="Helvetica Neue"/>
+            <a:sym typeface="Helvetica Neue"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="8648700" cy="1019175"/>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="14" name="Shape 2" title="Drawing"/>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="123825" y="18135600"/>
+          <a:ext cx="8648700" cy="1019175"/>
+          <a:chOff x="1021650" y="3270413"/>
+          <a:chExt cx="8648700" cy="1019175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="15" name="Shape 26"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="1021650" y="3270413"/>
+            <a:ext cx="8648700" cy="1019175"/>
+            <a:chOff x="130968" y="71438"/>
+            <a:chExt cx="7679488" cy="1262061"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="Shape 5"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="130968" y="71438"/>
+              <a:ext cx="7679475" cy="1262050"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="91425" rIns="91425" bIns="91425" anchor="ctr" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-GB"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:endParaRPr lang="en-GB" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:grpSp>
+          <xdr:nvGrpSpPr>
+            <xdr:cNvPr id="17" name="Shape 27"/>
+            <xdr:cNvGrpSpPr/>
+          </xdr:nvGrpSpPr>
+          <xdr:grpSpPr>
+            <a:xfrm>
+              <a:off x="130968" y="345283"/>
+              <a:ext cx="1702595" cy="821530"/>
+              <a:chOff x="0" y="0"/>
+              <a:chExt cx="1149742" cy="514985"/>
+            </a:xfrm>
+          </xdr:grpSpPr>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="18" name="Shape 28"/>
+              <xdr:cNvPicPr preferRelativeResize="0">
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId1"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="0" y="0"/>
+                <a:ext cx="546731" cy="506095"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+          <xdr:pic>
+            <xdr:nvPicPr>
+              <xdr:cNvPr id="19" name="Shape 29"/>
+              <xdr:cNvPicPr preferRelativeResize="0">
+                <a:picLocks noChangeAspect="1"/>
+              </xdr:cNvPicPr>
+            </xdr:nvPicPr>
+            <xdr:blipFill>
+              <a:blip r:embed="rId2"/>
+              <a:srcRect/>
+              <a:stretch>
+                <a:fillRect/>
+              </a:stretch>
+            </xdr:blipFill>
+            <xdr:spPr>
+              <a:xfrm>
+                <a:off x="594556" y="0"/>
+                <a:ext cx="555186" cy="514985"/>
+              </a:xfrm>
+              <a:prstGeom prst="rect">
+                <a:avLst/>
+              </a:prstGeom>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </xdr:spPr>
+          </xdr:pic>
+        </xdr:grpSp>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="20" name="Shape 30"/>
+            <xdr:cNvPicPr preferRelativeResize="0">
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip r:embed="rId3"/>
+            <a:srcRect/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6667498" y="142873"/>
+              <a:ext cx="1142958" cy="1190626"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp>
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="Shape 31"/>
+            <xdr:cNvSpPr txBox="1">
+              <a:spLocks noChangeAspect="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1940719" y="71438"/>
+              <a:ext cx="4524375" cy="1190624"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="t" anchorCtr="0">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle>
+              <a:defPPr>
+                <a:defRPr lang="en-GB"/>
+              </a:defPPr>
+              <a:lvl1pPr marL="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl1pPr>
+              <a:lvl2pPr marL="457200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl2pPr>
+              <a:lvl3pPr marL="914400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl3pPr>
+              <a:lvl4pPr marL="1371600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl4pPr>
+              <a:lvl5pPr marL="1828800" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl5pPr>
+              <a:lvl6pPr marL="2286000" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl6pPr>
+              <a:lvl7pPr marL="2743200" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl7pPr>
+              <a:lvl8pPr marL="3200400" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl8pPr>
+              <a:lvl9pPr marL="3657600" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+                <a:defRPr sz="1100">
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:lvl9pPr>
+            </a:lstStyle>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:endParaRPr sz="1100" b="1">
+                <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                <a:sym typeface="Cambria" panose="02040503050406030204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="1">
+                  <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                  <a:sym typeface="Cambria" panose="02040503050406030204"/>
+                </a:rPr>
+                <a:t>Republic of the Philippines</a:t>
+              </a:r>
+              <a:endParaRPr sz="1400"/>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1400" b="0">
+                  <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                  <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                  <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                  <a:sym typeface="Cambria" panose="02040503050406030204"/>
+                </a:rPr>
+                <a:t>OFFICE OF THE PRESIDENT</a:t>
+              </a:r>
+              <a:endParaRPr sz="1400" b="0">
+                <a:latin typeface="Cambria" panose="02040503050406030204"/>
+                <a:ea typeface="Cambria" panose="02040503050406030204"/>
+                <a:cs typeface="Cambria" panose="02040503050406030204"/>
+                <a:sym typeface="Cambria" panose="02040503050406030204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1600" b="1">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t>National Irrigation Administration</a:t>
+              </a:r>
+              <a:endParaRPr sz="1600">
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                <a:sym typeface="Arial" panose="020B0604020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1200">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t>Regional Office No. IV-A (CALABARZON)</a:t>
+              </a:r>
+              <a:endParaRPr sz="1200">
+                <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                <a:sym typeface="Arial" panose="020B0604020202020204"/>
+              </a:endParaRPr>
+            </a:p>
+            <a:p>
+              <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" rtl="0">
+                <a:lnSpc>
+                  <a:spcPct val="107000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buNone/>
+              </a:pPr>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100">
+                  <a:latin typeface="Arial" panose="020B0604020202020204"/>
+                  <a:ea typeface="Arial" panose="020B0604020202020204"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204"/>
+                  <a:sym typeface="Arial" panose="020B0604020202020204"/>
+                </a:rPr>
+                <a:t> </a:t>
+              </a:r>
+              <a:endParaRPr lang="en-GB" altLang="en-US" sz="1400"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>147</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="11727815" cy="2398395"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="image14.png"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="31203900"/>
+          <a:ext cx="11727815" cy="2398395"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1276350" cy="695325"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="image1.jpg"/>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9934575" y="32184975"/>
+          <a:ext cx="1276350" cy="695325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3629,10 +5175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q85"/>
+  <dimension ref="A1:Q160"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S74" sqref="S74"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="S112" sqref="S112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -4107,7 +5653,7 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="195" t="s">
+      <c r="F23" s="378" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="44" t="e">
@@ -4133,7 +5679,7 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="195" t="s">
+      <c r="F24" s="378" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="44" t="e">
@@ -4159,7 +5705,7 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="195" t="s">
+      <c r="F25" s="378" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="44" t="e">
@@ -4185,7 +5731,7 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="195" t="s">
+      <c r="F26" s="378" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="44" t="e">
@@ -4247,7 +5793,7 @@
     <row r="29" ht="15.75" spans="1:17">
       <c r="A29" s="38"/>
       <c r="B29" s="50"/>
-      <c r="C29" s="196" t="s">
+      <c r="C29" s="379" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="52"/>
@@ -4274,7 +5820,7 @@
       </c>
       <c r="D30" s="52"/>
       <c r="E30" s="46"/>
-      <c r="F30" s="197" t="s">
+      <c r="F30" s="380" t="s">
         <v>25</v>
       </c>
       <c r="G30" s="51" t="e">
@@ -4354,7 +5900,7 @@
     </row>
     <row r="34" ht="15.75" spans="1:17">
       <c r="A34" s="38"/>
-      <c r="B34" s="198" t="s">
+      <c r="B34" s="381" t="s">
         <v>26</v>
       </c>
       <c r="C34" s="39"/>
@@ -4379,7 +5925,7 @@
       <c r="C35" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="196" t="s">
+      <c r="D35" s="379" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="54"/>
@@ -4402,7 +5948,7 @@
       <c r="C36" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="196" t="s">
+      <c r="D36" s="379" t="s">
         <v>28</v>
       </c>
       <c r="E36" s="54"/>
@@ -4425,7 +5971,7 @@
       <c r="C37" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="D37" s="196" t="s">
+      <c r="D37" s="379" t="s">
         <v>28</v>
       </c>
       <c r="E37" s="39"/>
@@ -4691,7 +6237,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
       <c r="J49" s="110"/>
-      <c r="K49" s="199" t="s">
+      <c r="K49" s="382" t="s">
         <v>43</v>
       </c>
       <c r="L49" s="8"/>
@@ -4736,7 +6282,7 @@
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="K51" s="200" t="s">
+      <c r="K51" s="383" t="s">
         <v>43</v>
       </c>
       <c r="L51" s="20"/>
@@ -5058,10 +6604,10 @@
       <c r="M65" s="32"/>
       <c r="N65" s="32"/>
       <c r="O65" s="105"/>
-      <c r="P65" s="186" t="s">
+      <c r="P65" s="245" t="s">
         <v>64</v>
       </c>
-      <c r="Q65" s="193"/>
+      <c r="Q65" s="307"/>
     </row>
     <row r="66" ht="15.75" spans="1:17">
       <c r="A66" s="175" t="s">
@@ -5075,17 +6621,17 @@
       <c r="G66" s="28"/>
       <c r="H66" s="28"/>
       <c r="I66" s="140"/>
-      <c r="J66" s="187" t="s">
+      <c r="J66" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="K66" s="188" t="s">
+      <c r="K66" s="247" t="s">
         <v>67</v>
       </c>
       <c r="L66" s="28"/>
       <c r="M66" s="28"/>
       <c r="N66" s="28"/>
       <c r="O66" s="140"/>
-      <c r="P66" s="189" t="s">
+      <c r="P66" s="248" t="s">
         <v>68</v>
       </c>
       <c r="Q66" s="94"/>
@@ -5101,7 +6647,7 @@
       <c r="H67" s="26"/>
       <c r="I67" s="152"/>
       <c r="J67" s="25"/>
-      <c r="K67" s="190"/>
+      <c r="K67" s="249"/>
       <c r="L67" s="26"/>
       <c r="M67" s="26"/>
       <c r="N67" s="26"/>
@@ -5121,10 +6667,10 @@
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
       <c r="I68" s="140"/>
-      <c r="J68" s="187" t="s">
+      <c r="J68" s="246" t="s">
         <v>66</v>
       </c>
-      <c r="K68" s="188" t="s">
+      <c r="K68" s="247" t="s">
         <v>70</v>
       </c>
       <c r="L68" s="28"/>
@@ -5134,7 +6680,7 @@
       <c r="P68" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="Q68" s="194"/>
+      <c r="Q68" s="308"/>
     </row>
     <row r="69" ht="15.75" spans="1:17">
       <c r="A69" s="84"/>
@@ -5147,12 +6693,12 @@
       <c r="H69" s="26"/>
       <c r="I69" s="152"/>
       <c r="J69" s="25"/>
-      <c r="K69" s="191"/>
+      <c r="K69" s="250"/>
       <c r="L69" s="26"/>
       <c r="M69" s="26"/>
       <c r="N69" s="26"/>
       <c r="O69" s="152"/>
-      <c r="P69" s="189" t="s">
+      <c r="P69" s="248" t="s">
         <v>68</v>
       </c>
       <c r="Q69" s="94"/>
@@ -5174,7 +6720,7 @@
       <c r="L70" s="177"/>
       <c r="M70" s="177"/>
       <c r="N70" s="177"/>
-      <c r="O70" s="192"/>
+      <c r="O70" s="251"/>
       <c r="P70" s="30"/>
       <c r="Q70" s="162"/>
     </row>
@@ -5463,8 +7009,1564 @@
       <c r="P85" s="39"/>
       <c r="Q85" s="39"/>
     </row>
+    <row r="86" ht="15.75"/>
+    <row r="87" ht="15.75" spans="1:17">
+      <c r="A87" s="186"/>
+      <c r="B87" s="187"/>
+      <c r="C87" s="187"/>
+      <c r="D87" s="187"/>
+      <c r="E87" s="187"/>
+      <c r="F87" s="187"/>
+      <c r="G87" s="187"/>
+      <c r="H87" s="187"/>
+      <c r="I87" s="187"/>
+      <c r="J87" s="187"/>
+      <c r="K87" s="187"/>
+      <c r="L87" s="187"/>
+      <c r="M87" s="187"/>
+      <c r="N87" s="187"/>
+      <c r="O87" s="252"/>
+      <c r="P87" s="253" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q87" s="252"/>
+    </row>
+    <row r="88" ht="18" spans="1:17">
+      <c r="A88" s="188"/>
+      <c r="B88" s="189"/>
+      <c r="C88" s="189"/>
+      <c r="D88" s="189"/>
+      <c r="E88" s="189"/>
+      <c r="F88" s="189"/>
+      <c r="G88" s="189"/>
+      <c r="H88" s="189"/>
+      <c r="I88" s="189"/>
+      <c r="J88" s="189"/>
+      <c r="K88" s="189"/>
+      <c r="L88" s="189"/>
+      <c r="M88" s="189"/>
+      <c r="N88" s="189"/>
+      <c r="O88" s="254"/>
+      <c r="P88" s="255"/>
+      <c r="Q88" s="309"/>
+    </row>
+    <row r="89" ht="15.75" spans="1:17">
+      <c r="A89" s="190"/>
+      <c r="B89" s="191"/>
+      <c r="C89" s="191"/>
+      <c r="D89" s="192"/>
+      <c r="E89" s="193"/>
+      <c r="F89" s="193"/>
+      <c r="G89" s="193"/>
+      <c r="H89" s="193"/>
+      <c r="I89" s="193"/>
+      <c r="J89" s="193"/>
+      <c r="K89" s="193"/>
+      <c r="L89" s="193"/>
+      <c r="M89" s="193"/>
+      <c r="N89" s="193"/>
+      <c r="O89" s="256"/>
+      <c r="P89" s="188" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q89" s="256"/>
+    </row>
+    <row r="90" ht="18" spans="1:17">
+      <c r="A90" s="190"/>
+      <c r="B90" s="194"/>
+      <c r="C90" s="194"/>
+      <c r="D90" s="195"/>
+      <c r="E90" s="193"/>
+      <c r="F90" s="193"/>
+      <c r="G90" s="193"/>
+      <c r="H90" s="193"/>
+      <c r="I90" s="193"/>
+      <c r="J90" s="193"/>
+      <c r="K90" s="193"/>
+      <c r="L90" s="193"/>
+      <c r="M90" s="193"/>
+      <c r="N90" s="193"/>
+      <c r="O90" s="256"/>
+      <c r="P90" s="257"/>
+      <c r="Q90" s="310"/>
+    </row>
+    <row r="91" ht="15.75" spans="1:17">
+      <c r="A91" s="190"/>
+      <c r="B91" s="191"/>
+      <c r="C91" s="191"/>
+      <c r="D91" s="192"/>
+      <c r="E91" s="193"/>
+      <c r="F91" s="193"/>
+      <c r="G91" s="193"/>
+      <c r="H91" s="193"/>
+      <c r="I91" s="193"/>
+      <c r="J91" s="193"/>
+      <c r="K91" s="193"/>
+      <c r="L91" s="193"/>
+      <c r="M91" s="193"/>
+      <c r="N91" s="193"/>
+      <c r="O91" s="256"/>
+      <c r="P91" s="258" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="311"/>
+    </row>
+    <row r="92" ht="18.75" spans="1:17">
+      <c r="A92" s="190"/>
+      <c r="B92" s="191"/>
+      <c r="C92" s="191"/>
+      <c r="D92" s="192"/>
+      <c r="E92" s="192"/>
+      <c r="F92" s="192"/>
+      <c r="G92" s="192"/>
+      <c r="H92" s="192"/>
+      <c r="I92" s="192"/>
+      <c r="J92" s="192"/>
+      <c r="K92" s="192"/>
+      <c r="L92" s="192"/>
+      <c r="M92" s="192"/>
+      <c r="N92" s="192"/>
+      <c r="O92" s="259"/>
+      <c r="P92" s="260"/>
+      <c r="Q92" s="256"/>
+    </row>
+    <row r="93" ht="23.25" spans="1:17">
+      <c r="A93" s="196" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="197"/>
+      <c r="C93" s="197"/>
+      <c r="D93" s="197"/>
+      <c r="E93" s="197"/>
+      <c r="F93" s="197"/>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="197"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="197"/>
+      <c r="L93" s="197"/>
+      <c r="M93" s="197"/>
+      <c r="N93" s="197"/>
+      <c r="O93" s="197"/>
+      <c r="P93" s="261"/>
+      <c r="Q93" s="312"/>
+    </row>
+    <row r="94" ht="15.75" spans="1:17">
+      <c r="A94" s="198" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="187"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="187"/>
+      <c r="E94" s="187"/>
+      <c r="F94" s="187"/>
+      <c r="G94" s="187"/>
+      <c r="H94" s="187"/>
+      <c r="I94" s="187"/>
+      <c r="J94" s="187"/>
+      <c r="K94" s="187"/>
+      <c r="L94" s="187"/>
+      <c r="M94" s="187"/>
+      <c r="N94" s="187"/>
+      <c r="O94" s="187"/>
+      <c r="P94" s="187"/>
+      <c r="Q94" s="252"/>
+    </row>
+    <row r="95" ht="15.75" spans="1:17">
+      <c r="A95" s="200"/>
+      <c r="B95" s="193"/>
+      <c r="C95" s="201"/>
+      <c r="D95" s="202"/>
+      <c r="E95" s="203" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" s="203"/>
+      <c r="G95" s="202"/>
+      <c r="H95" s="203" t="s">
+        <v>6</v>
+      </c>
+      <c r="I95" s="203"/>
+      <c r="J95" s="191"/>
+      <c r="K95" s="202"/>
+      <c r="L95" s="203" t="s">
+        <v>7</v>
+      </c>
+      <c r="M95" s="203"/>
+      <c r="N95" s="262" t="s">
+        <v>8</v>
+      </c>
+      <c r="O95" s="203" t="s">
+        <v>9</v>
+      </c>
+      <c r="P95" s="203"/>
+      <c r="Q95" s="313"/>
+    </row>
+    <row r="96" ht="16.5" spans="1:17">
+      <c r="A96" s="204"/>
+      <c r="B96" s="205"/>
+      <c r="C96" s="206"/>
+      <c r="D96" s="207"/>
+      <c r="E96" s="207"/>
+      <c r="F96" s="208"/>
+      <c r="G96" s="208"/>
+      <c r="H96" s="207"/>
+      <c r="I96" s="205"/>
+      <c r="J96" s="207"/>
+      <c r="K96" s="207"/>
+      <c r="L96" s="205"/>
+      <c r="M96" s="207"/>
+      <c r="N96" s="207"/>
+      <c r="O96" s="208"/>
+      <c r="P96" s="207"/>
+      <c r="Q96" s="314"/>
+    </row>
+    <row r="97" ht="20.25" spans="1:17">
+      <c r="A97" s="198" t="s">
+        <v>10</v>
+      </c>
+      <c r="B97" s="187"/>
+      <c r="C97" s="209" t="s">
+        <v>74</v>
+      </c>
+      <c r="D97" s="187"/>
+      <c r="E97" s="187"/>
+      <c r="F97" s="187"/>
+      <c r="G97" s="187"/>
+      <c r="H97" s="187"/>
+      <c r="I97" s="187"/>
+      <c r="J97" s="187"/>
+      <c r="K97" s="209" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="187"/>
+      <c r="M97" s="187"/>
+      <c r="N97" s="187"/>
+      <c r="O97" s="187"/>
+      <c r="P97" s="263" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q97" s="252"/>
+    </row>
+    <row r="98" ht="20.25" spans="1:17">
+      <c r="A98" s="200"/>
+      <c r="B98" s="193"/>
+      <c r="C98" s="210"/>
+      <c r="D98" s="211"/>
+      <c r="E98" s="211"/>
+      <c r="F98" s="211"/>
+      <c r="G98" s="211"/>
+      <c r="H98" s="211"/>
+      <c r="I98" s="211"/>
+      <c r="J98" s="211"/>
+      <c r="K98" s="264"/>
+      <c r="L98" s="193"/>
+      <c r="M98" s="193"/>
+      <c r="N98" s="193"/>
+      <c r="O98" s="193"/>
+      <c r="P98" s="265"/>
+      <c r="Q98" s="315"/>
+    </row>
+    <row r="99" spans="1:17">
+      <c r="A99" s="212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" s="213"/>
+      <c r="C99" s="214" t="s">
+        <v>75</v>
+      </c>
+      <c r="D99" s="213"/>
+      <c r="E99" s="213"/>
+      <c r="F99" s="213"/>
+      <c r="G99" s="213"/>
+      <c r="H99" s="213"/>
+      <c r="I99" s="213"/>
+      <c r="J99" s="213"/>
+      <c r="K99" s="213"/>
+      <c r="L99" s="213"/>
+      <c r="M99" s="213"/>
+      <c r="N99" s="213"/>
+      <c r="O99" s="213"/>
+      <c r="P99" s="213"/>
+      <c r="Q99" s="311"/>
+    </row>
+    <row r="100" ht="15.75" spans="1:17">
+      <c r="A100" s="204"/>
+      <c r="B100" s="205"/>
+      <c r="C100" s="215"/>
+      <c r="D100" s="205"/>
+      <c r="E100" s="205"/>
+      <c r="F100" s="205"/>
+      <c r="G100" s="205"/>
+      <c r="H100" s="205"/>
+      <c r="I100" s="205"/>
+      <c r="J100" s="205"/>
+      <c r="K100" s="205"/>
+      <c r="L100" s="205"/>
+      <c r="M100" s="205"/>
+      <c r="N100" s="205"/>
+      <c r="O100" s="205"/>
+      <c r="P100" s="205"/>
+      <c r="Q100" s="316"/>
+    </row>
+    <row r="101" ht="18" spans="1:17">
+      <c r="A101" s="216" t="s">
+        <v>14</v>
+      </c>
+      <c r="B101" s="217"/>
+      <c r="C101" s="217"/>
+      <c r="D101" s="217"/>
+      <c r="E101" s="217"/>
+      <c r="F101" s="217"/>
+      <c r="G101" s="217"/>
+      <c r="H101" s="217"/>
+      <c r="I101" s="217"/>
+      <c r="J101" s="217"/>
+      <c r="K101" s="266"/>
+      <c r="L101" s="267"/>
+      <c r="M101" s="266" t="s">
+        <v>15</v>
+      </c>
+      <c r="N101" s="217"/>
+      <c r="O101" s="267"/>
+      <c r="P101" s="266" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q101" s="317"/>
+    </row>
+    <row r="102" ht="15.75" spans="1:17">
+      <c r="A102" s="218"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="219"/>
+      <c r="D102" s="219"/>
+      <c r="E102" s="219"/>
+      <c r="F102" s="219"/>
+      <c r="G102" s="219"/>
+      <c r="H102" s="219"/>
+      <c r="I102" s="219"/>
+      <c r="J102" s="268"/>
+      <c r="K102" s="269"/>
+      <c r="L102" s="270"/>
+      <c r="M102" s="269"/>
+      <c r="N102" s="271"/>
+      <c r="O102" s="272"/>
+      <c r="P102" s="273"/>
+      <c r="Q102" s="318"/>
+    </row>
+    <row r="103" ht="20.25" spans="1:17">
+      <c r="A103" s="220"/>
+      <c r="B103" s="221"/>
+      <c r="C103" s="221"/>
+      <c r="D103" s="221"/>
+      <c r="E103" s="221"/>
+      <c r="F103" s="221"/>
+      <c r="G103" s="221"/>
+      <c r="H103" s="221"/>
+      <c r="I103" s="221"/>
+      <c r="J103" s="274"/>
+      <c r="K103" s="275" t="s">
+        <v>76</v>
+      </c>
+      <c r="L103" s="276"/>
+      <c r="M103" s="201"/>
+      <c r="N103" s="191"/>
+      <c r="O103" s="277" t="s">
+        <v>18</v>
+      </c>
+      <c r="P103" s="278"/>
+      <c r="Q103" s="319"/>
+    </row>
+    <row r="104" ht="15.75" spans="1:17">
+      <c r="A104" s="220"/>
+      <c r="B104" s="221"/>
+      <c r="C104" s="221"/>
+      <c r="D104" s="221"/>
+      <c r="E104" s="221"/>
+      <c r="F104" s="221"/>
+      <c r="G104" s="221"/>
+      <c r="H104" s="221"/>
+      <c r="I104" s="221"/>
+      <c r="J104" s="274"/>
+      <c r="K104" s="279"/>
+      <c r="L104" s="280"/>
+      <c r="M104" s="201"/>
+      <c r="N104" s="191"/>
+      <c r="O104" s="281"/>
+      <c r="P104" s="201"/>
+      <c r="Q104" s="320"/>
+    </row>
+    <row r="105" ht="15.75" spans="1:17">
+      <c r="A105" s="220"/>
+      <c r="B105" s="221"/>
+      <c r="C105" s="221"/>
+      <c r="D105" s="221"/>
+      <c r="E105" s="221"/>
+      <c r="F105" s="221"/>
+      <c r="G105" s="221"/>
+      <c r="H105" s="221"/>
+      <c r="I105" s="221"/>
+      <c r="J105" s="274"/>
+      <c r="K105" s="279"/>
+      <c r="L105" s="280"/>
+      <c r="M105" s="201"/>
+      <c r="N105" s="191"/>
+      <c r="O105" s="281"/>
+      <c r="P105" s="282"/>
+      <c r="Q105" s="320"/>
+    </row>
+    <row r="106" ht="15.75" spans="1:17">
+      <c r="A106" s="220"/>
+      <c r="B106" s="221"/>
+      <c r="C106" s="221"/>
+      <c r="D106" s="221"/>
+      <c r="E106" s="221"/>
+      <c r="F106" s="221"/>
+      <c r="G106" s="221"/>
+      <c r="H106" s="221"/>
+      <c r="I106" s="221"/>
+      <c r="J106" s="274"/>
+      <c r="K106" s="279"/>
+      <c r="L106" s="280"/>
+      <c r="M106" s="201"/>
+      <c r="N106" s="191"/>
+      <c r="O106" s="281"/>
+      <c r="P106" s="282"/>
+      <c r="Q106" s="320"/>
+    </row>
+    <row r="107" ht="15.75" spans="1:17">
+      <c r="A107" s="220"/>
+      <c r="B107" s="221"/>
+      <c r="C107" s="221"/>
+      <c r="D107" s="221"/>
+      <c r="E107" s="221"/>
+      <c r="F107" s="221"/>
+      <c r="G107" s="221"/>
+      <c r="H107" s="221"/>
+      <c r="I107" s="221"/>
+      <c r="J107" s="274"/>
+      <c r="K107" s="279"/>
+      <c r="L107" s="280"/>
+      <c r="M107" s="201"/>
+      <c r="N107" s="191"/>
+      <c r="O107" s="281"/>
+      <c r="P107" s="282"/>
+      <c r="Q107" s="320"/>
+    </row>
+    <row r="108" ht="15.75" spans="1:17">
+      <c r="A108" s="220"/>
+      <c r="B108" s="221"/>
+      <c r="C108" s="221"/>
+      <c r="D108" s="221"/>
+      <c r="E108" s="221"/>
+      <c r="F108" s="221"/>
+      <c r="G108" s="221"/>
+      <c r="H108" s="221"/>
+      <c r="I108" s="221"/>
+      <c r="J108" s="274"/>
+      <c r="K108" s="201"/>
+      <c r="L108" s="281"/>
+      <c r="M108" s="201"/>
+      <c r="N108" s="191"/>
+      <c r="O108" s="281"/>
+      <c r="P108" s="201"/>
+      <c r="Q108" s="320"/>
+    </row>
+    <row r="109" ht="15.75" spans="1:17">
+      <c r="A109" s="222"/>
+      <c r="B109" s="223"/>
+      <c r="C109" s="224"/>
+      <c r="D109" s="193"/>
+      <c r="E109" s="224"/>
+      <c r="F109" s="224"/>
+      <c r="G109" s="225"/>
+      <c r="H109" s="193"/>
+      <c r="I109" s="193"/>
+      <c r="J109" s="283"/>
+      <c r="K109" s="203"/>
+      <c r="L109" s="280"/>
+      <c r="M109" s="279"/>
+      <c r="N109" s="203"/>
+      <c r="O109" s="280"/>
+      <c r="P109" s="284"/>
+      <c r="Q109" s="320"/>
+    </row>
+    <row r="110" ht="15.75" spans="1:17">
+      <c r="A110" s="222"/>
+      <c r="B110" s="223"/>
+      <c r="C110" s="224"/>
+      <c r="D110" s="193"/>
+      <c r="E110" s="224"/>
+      <c r="F110" s="224"/>
+      <c r="G110" s="225"/>
+      <c r="H110" s="193"/>
+      <c r="I110" s="193"/>
+      <c r="J110" s="283"/>
+      <c r="K110" s="203"/>
+      <c r="L110" s="280"/>
+      <c r="M110" s="279"/>
+      <c r="N110" s="203"/>
+      <c r="O110" s="280"/>
+      <c r="P110" s="284"/>
+      <c r="Q110" s="320"/>
+    </row>
+    <row r="111" ht="15.75" spans="1:17">
+      <c r="A111" s="222"/>
+      <c r="B111" s="223"/>
+      <c r="C111" s="224"/>
+      <c r="D111" s="193"/>
+      <c r="E111" s="224"/>
+      <c r="F111" s="224"/>
+      <c r="G111" s="225"/>
+      <c r="H111" s="193"/>
+      <c r="I111" s="193"/>
+      <c r="J111" s="283"/>
+      <c r="K111" s="203"/>
+      <c r="L111" s="280"/>
+      <c r="M111" s="279"/>
+      <c r="N111" s="203"/>
+      <c r="O111" s="280"/>
+      <c r="P111" s="284"/>
+      <c r="Q111" s="320"/>
+    </row>
+    <row r="112" ht="15.75" spans="1:17">
+      <c r="A112" s="222"/>
+      <c r="B112" s="223"/>
+      <c r="C112" s="224"/>
+      <c r="D112" s="193"/>
+      <c r="E112" s="224"/>
+      <c r="F112" s="224"/>
+      <c r="G112" s="225"/>
+      <c r="H112" s="193"/>
+      <c r="I112" s="193"/>
+      <c r="J112" s="283"/>
+      <c r="K112" s="203"/>
+      <c r="L112" s="280"/>
+      <c r="M112" s="279"/>
+      <c r="N112" s="203"/>
+      <c r="O112" s="280"/>
+      <c r="P112" s="284"/>
+      <c r="Q112" s="320"/>
+    </row>
+    <row r="113" ht="15.75" spans="1:17">
+      <c r="A113" s="222"/>
+      <c r="B113" s="223"/>
+      <c r="C113" s="224"/>
+      <c r="D113" s="193"/>
+      <c r="E113" s="226"/>
+      <c r="F113" s="224"/>
+      <c r="G113" s="225"/>
+      <c r="H113" s="193"/>
+      <c r="I113" s="193"/>
+      <c r="J113" s="283"/>
+      <c r="K113" s="203"/>
+      <c r="L113" s="280"/>
+      <c r="M113" s="279"/>
+      <c r="N113" s="203"/>
+      <c r="O113" s="280"/>
+      <c r="P113" s="284"/>
+      <c r="Q113" s="320"/>
+    </row>
+    <row r="114" ht="18" spans="1:17">
+      <c r="A114" s="222"/>
+      <c r="B114" s="203"/>
+      <c r="C114" s="227"/>
+      <c r="D114" s="228"/>
+      <c r="E114" s="228"/>
+      <c r="F114" s="228"/>
+      <c r="G114" s="228"/>
+      <c r="H114" s="228"/>
+      <c r="I114" s="228"/>
+      <c r="J114" s="285"/>
+      <c r="K114" s="286"/>
+      <c r="L114" s="287"/>
+      <c r="M114" s="288"/>
+      <c r="N114" s="286"/>
+      <c r="O114" s="287"/>
+      <c r="P114" s="289"/>
+      <c r="Q114" s="321"/>
+    </row>
+    <row r="115" ht="15.75" spans="1:17">
+      <c r="A115" s="222"/>
+      <c r="B115" s="203"/>
+      <c r="C115" s="203"/>
+      <c r="D115" s="203"/>
+      <c r="E115" s="203"/>
+      <c r="F115" s="229"/>
+      <c r="G115" s="230"/>
+      <c r="H115" s="230"/>
+      <c r="I115" s="230"/>
+      <c r="J115" s="230"/>
+      <c r="K115" s="288"/>
+      <c r="L115" s="287"/>
+      <c r="M115" s="288"/>
+      <c r="N115" s="286"/>
+      <c r="O115" s="287"/>
+      <c r="P115" s="289"/>
+      <c r="Q115" s="322"/>
+    </row>
+    <row r="116" ht="18.75" spans="1:17">
+      <c r="A116" s="231" t="s">
+        <v>31</v>
+      </c>
+      <c r="B116" s="205"/>
+      <c r="C116" s="205"/>
+      <c r="D116" s="205"/>
+      <c r="E116" s="205"/>
+      <c r="F116" s="205"/>
+      <c r="G116" s="205"/>
+      <c r="H116" s="205"/>
+      <c r="I116" s="205"/>
+      <c r="J116" s="205"/>
+      <c r="K116" s="290"/>
+      <c r="L116" s="291"/>
+      <c r="M116" s="290"/>
+      <c r="N116" s="208"/>
+      <c r="O116" s="292" t="s">
+        <v>18</v>
+      </c>
+      <c r="P116" s="293"/>
+      <c r="Q116" s="323">
+        <f>Q103</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" ht="15.75" spans="1:17">
+      <c r="A117" s="232" t="s">
+        <v>32</v>
+      </c>
+      <c r="B117" s="233" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="193"/>
+      <c r="D117" s="193"/>
+      <c r="E117" s="193"/>
+      <c r="F117" s="193"/>
+      <c r="G117" s="193"/>
+      <c r="H117" s="193"/>
+      <c r="I117" s="193"/>
+      <c r="J117" s="193"/>
+      <c r="K117" s="193"/>
+      <c r="L117" s="193"/>
+      <c r="M117" s="193"/>
+      <c r="N117" s="193"/>
+      <c r="O117" s="193"/>
+      <c r="P117" s="193"/>
+      <c r="Q117" s="256"/>
+    </row>
+    <row r="118" ht="15.75" spans="1:17">
+      <c r="A118" s="234"/>
+      <c r="B118" s="192"/>
+      <c r="C118" s="191" t="s">
+        <v>34</v>
+      </c>
+      <c r="D118" s="191"/>
+      <c r="E118" s="191"/>
+      <c r="F118" s="191"/>
+      <c r="G118" s="191"/>
+      <c r="H118" s="191"/>
+      <c r="I118" s="191"/>
+      <c r="J118" s="191"/>
+      <c r="K118" s="192"/>
+      <c r="L118" s="223"/>
+      <c r="M118" s="223"/>
+      <c r="N118" s="203"/>
+      <c r="O118" s="223"/>
+      <c r="P118" s="294"/>
+      <c r="Q118" s="254"/>
+    </row>
+    <row r="119" ht="15.75" spans="1:17">
+      <c r="A119" s="234"/>
+      <c r="B119" s="192"/>
+      <c r="C119" s="191"/>
+      <c r="D119" s="191"/>
+      <c r="E119" s="191"/>
+      <c r="F119" s="191"/>
+      <c r="G119" s="191"/>
+      <c r="H119" s="191"/>
+      <c r="I119" s="191"/>
+      <c r="J119" s="191"/>
+      <c r="K119" s="192"/>
+      <c r="L119" s="223"/>
+      <c r="M119" s="223"/>
+      <c r="N119" s="203"/>
+      <c r="O119" s="223"/>
+      <c r="P119" s="294"/>
+      <c r="Q119" s="254"/>
+    </row>
+    <row r="120" ht="15.75" spans="1:17">
+      <c r="A120" s="234"/>
+      <c r="B120" s="192"/>
+      <c r="C120" s="191"/>
+      <c r="D120" s="191"/>
+      <c r="E120" s="191"/>
+      <c r="F120" s="191"/>
+      <c r="G120" s="191"/>
+      <c r="H120" s="191"/>
+      <c r="I120" s="191"/>
+      <c r="J120" s="191"/>
+      <c r="K120" s="192"/>
+      <c r="L120" s="223"/>
+      <c r="M120" s="223"/>
+      <c r="N120" s="203"/>
+      <c r="O120" s="223"/>
+      <c r="P120" s="294"/>
+      <c r="Q120" s="254"/>
+    </row>
+    <row r="121" ht="15.75" spans="1:17">
+      <c r="A121" s="234"/>
+      <c r="B121" s="192"/>
+      <c r="C121" s="191"/>
+      <c r="D121" s="191"/>
+      <c r="E121" s="191"/>
+      <c r="F121" s="191"/>
+      <c r="G121" s="191"/>
+      <c r="H121" s="191"/>
+      <c r="I121" s="191"/>
+      <c r="J121" s="191"/>
+      <c r="K121" s="192"/>
+      <c r="L121" s="223"/>
+      <c r="M121" s="223"/>
+      <c r="N121" s="203"/>
+      <c r="O121" s="223"/>
+      <c r="P121" s="294"/>
+      <c r="Q121" s="254"/>
+    </row>
+    <row r="122" ht="20.25" spans="1:17">
+      <c r="A122" s="235"/>
+      <c r="B122" s="193"/>
+      <c r="C122" s="193"/>
+      <c r="D122" s="193"/>
+      <c r="E122" s="193"/>
+      <c r="F122" s="193"/>
+      <c r="G122" s="193"/>
+      <c r="H122" s="193"/>
+      <c r="I122" s="193"/>
+      <c r="J122" s="193"/>
+      <c r="K122" s="193"/>
+      <c r="L122" s="193"/>
+      <c r="M122" s="193"/>
+      <c r="N122" s="193"/>
+      <c r="O122" s="193"/>
+      <c r="P122" s="193"/>
+      <c r="Q122" s="256"/>
+    </row>
+    <row r="123" ht="21" spans="1:17">
+      <c r="A123" s="236" t="s">
+        <v>35</v>
+      </c>
+      <c r="B123" s="193"/>
+      <c r="C123" s="193"/>
+      <c r="D123" s="193"/>
+      <c r="E123" s="193"/>
+      <c r="F123" s="193"/>
+      <c r="G123" s="193"/>
+      <c r="H123" s="193"/>
+      <c r="I123" s="193"/>
+      <c r="J123" s="193"/>
+      <c r="K123" s="193"/>
+      <c r="L123" s="193"/>
+      <c r="M123" s="193"/>
+      <c r="N123" s="193"/>
+      <c r="O123" s="193"/>
+      <c r="P123" s="193"/>
+      <c r="Q123" s="256"/>
+    </row>
+    <row r="124" ht="15.75" spans="1:17">
+      <c r="A124" s="237" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124" s="238" t="s">
+        <v>37</v>
+      </c>
+      <c r="C124" s="239"/>
+      <c r="D124" s="239"/>
+      <c r="E124" s="239"/>
+      <c r="F124" s="239"/>
+      <c r="G124" s="239"/>
+      <c r="H124" s="239"/>
+      <c r="I124" s="239"/>
+      <c r="J124" s="239"/>
+      <c r="K124" s="239"/>
+      <c r="L124" s="239"/>
+      <c r="M124" s="239"/>
+      <c r="N124" s="239"/>
+      <c r="O124" s="239"/>
+      <c r="P124" s="239"/>
+      <c r="Q124" s="324"/>
+    </row>
+    <row r="125" ht="15.75" spans="1:17">
+      <c r="A125" s="240" t="s">
+        <v>38</v>
+      </c>
+      <c r="B125" s="241"/>
+      <c r="C125" s="241"/>
+      <c r="D125" s="241"/>
+      <c r="E125" s="241"/>
+      <c r="F125" s="241"/>
+      <c r="G125" s="241"/>
+      <c r="H125" s="241"/>
+      <c r="I125" s="241"/>
+      <c r="J125" s="241"/>
+      <c r="K125" s="295" t="s">
+        <v>39</v>
+      </c>
+      <c r="L125" s="241"/>
+      <c r="M125" s="296"/>
+      <c r="N125" s="297"/>
+      <c r="O125" s="298"/>
+      <c r="P125" s="299" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q125" s="325" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="126" ht="18" spans="1:17">
+      <c r="A126" s="242"/>
+      <c r="B126" s="227" t="s">
+        <v>77</v>
+      </c>
+      <c r="C126" s="227"/>
+      <c r="D126" s="227"/>
+      <c r="E126" s="227"/>
+      <c r="F126" s="227"/>
+      <c r="G126" s="227"/>
+      <c r="H126" s="227"/>
+      <c r="I126" s="227"/>
+      <c r="J126" s="227"/>
+      <c r="K126" s="300" t="s">
+        <v>78</v>
+      </c>
+      <c r="L126" s="301"/>
+      <c r="M126" s="302"/>
+      <c r="N126" s="301"/>
+      <c r="O126" s="301"/>
+      <c r="P126" s="302"/>
+      <c r="Q126" s="326"/>
+    </row>
+    <row r="127" ht="18" spans="1:17">
+      <c r="A127" s="242"/>
+      <c r="B127" s="227" t="s">
+        <v>77</v>
+      </c>
+      <c r="C127" s="227"/>
+      <c r="D127" s="227"/>
+      <c r="E127" s="227"/>
+      <c r="F127" s="227"/>
+      <c r="G127" s="227"/>
+      <c r="H127" s="227"/>
+      <c r="I127" s="227"/>
+      <c r="J127" s="227"/>
+      <c r="K127" s="300" t="s">
+        <v>78</v>
+      </c>
+      <c r="L127" s="301"/>
+      <c r="M127" s="302"/>
+      <c r="N127" s="301"/>
+      <c r="O127" s="301"/>
+      <c r="P127" s="302"/>
+      <c r="Q127" s="326"/>
+    </row>
+    <row r="128" ht="18.75" spans="1:17">
+      <c r="A128" s="243"/>
+      <c r="B128" s="244" t="s">
+        <v>44</v>
+      </c>
+      <c r="C128" s="205"/>
+      <c r="D128" s="205"/>
+      <c r="E128" s="205"/>
+      <c r="F128" s="205"/>
+      <c r="G128" s="205"/>
+      <c r="H128" s="205"/>
+      <c r="I128" s="205"/>
+      <c r="J128" s="205"/>
+      <c r="K128" s="384" t="s">
+        <v>43</v>
+      </c>
+      <c r="L128" s="205"/>
+      <c r="M128" s="304"/>
+      <c r="N128" s="305"/>
+      <c r="O128" s="305"/>
+      <c r="P128" s="306"/>
+      <c r="Q128" s="327"/>
+    </row>
+    <row r="129" ht="16.5" spans="1:17">
+      <c r="A129" s="328" t="s">
+        <v>45</v>
+      </c>
+      <c r="B129" s="329" t="s">
+        <v>46</v>
+      </c>
+      <c r="C129" s="205"/>
+      <c r="D129" s="205"/>
+      <c r="E129" s="205"/>
+      <c r="F129" s="205"/>
+      <c r="G129" s="205"/>
+      <c r="H129" s="205"/>
+      <c r="I129" s="205"/>
+      <c r="J129" s="205"/>
+      <c r="K129" s="358" t="s">
+        <v>47</v>
+      </c>
+      <c r="L129" s="208" t="s">
+        <v>48</v>
+      </c>
+      <c r="M129" s="205"/>
+      <c r="N129" s="205"/>
+      <c r="O129" s="205"/>
+      <c r="P129" s="205"/>
+      <c r="Q129" s="316"/>
+    </row>
+    <row r="130" ht="18" spans="1:17">
+      <c r="A130" s="330"/>
+      <c r="B130" s="331"/>
+      <c r="C130" s="332" t="s">
+        <v>49</v>
+      </c>
+      <c r="D130" s="332"/>
+      <c r="E130" s="332"/>
+      <c r="F130" s="332"/>
+      <c r="G130" s="332"/>
+      <c r="H130" s="332"/>
+      <c r="I130" s="332"/>
+      <c r="J130" s="332"/>
+      <c r="K130" s="359"/>
+      <c r="L130" s="187"/>
+      <c r="M130" s="187"/>
+      <c r="N130" s="187"/>
+      <c r="O130" s="187"/>
+      <c r="P130" s="187"/>
+      <c r="Q130" s="252"/>
+    </row>
+    <row r="131" ht="18" spans="1:17">
+      <c r="A131" s="222"/>
+      <c r="B131" s="202"/>
+      <c r="C131" s="333" t="s">
+        <v>51</v>
+      </c>
+      <c r="D131" s="333"/>
+      <c r="E131" s="333"/>
+      <c r="F131" s="333"/>
+      <c r="G131" s="333"/>
+      <c r="H131" s="333"/>
+      <c r="I131" s="333"/>
+      <c r="J131" s="333"/>
+      <c r="K131" s="200"/>
+      <c r="L131" s="193"/>
+      <c r="M131" s="193"/>
+      <c r="N131" s="193"/>
+      <c r="O131" s="193"/>
+      <c r="P131" s="193"/>
+      <c r="Q131" s="256"/>
+    </row>
+    <row r="132" ht="18" spans="1:17">
+      <c r="A132" s="234"/>
+      <c r="B132" s="202"/>
+      <c r="C132" s="333" t="s">
+        <v>52</v>
+      </c>
+      <c r="D132" s="333"/>
+      <c r="E132" s="333"/>
+      <c r="F132" s="333"/>
+      <c r="G132" s="333"/>
+      <c r="H132" s="333"/>
+      <c r="I132" s="333"/>
+      <c r="J132" s="333"/>
+      <c r="K132" s="200"/>
+      <c r="L132" s="193"/>
+      <c r="M132" s="193"/>
+      <c r="N132" s="193"/>
+      <c r="O132" s="193"/>
+      <c r="P132" s="193"/>
+      <c r="Q132" s="256"/>
+    </row>
+    <row r="133" ht="18.75" spans="1:17">
+      <c r="A133" s="334"/>
+      <c r="B133" s="208"/>
+      <c r="C133" s="335" t="s">
+        <v>53</v>
+      </c>
+      <c r="D133" s="335"/>
+      <c r="E133" s="335"/>
+      <c r="F133" s="335"/>
+      <c r="G133" s="335"/>
+      <c r="H133" s="335"/>
+      <c r="I133" s="335"/>
+      <c r="J133" s="335"/>
+      <c r="K133" s="204"/>
+      <c r="L133" s="205"/>
+      <c r="M133" s="205"/>
+      <c r="N133" s="205"/>
+      <c r="O133" s="205"/>
+      <c r="P133" s="205"/>
+      <c r="Q133" s="316"/>
+    </row>
+    <row r="134" spans="1:17">
+      <c r="A134" s="336" t="s">
+        <v>54</v>
+      </c>
+      <c r="B134" s="187"/>
+      <c r="C134" s="337"/>
+      <c r="D134" s="187"/>
+      <c r="E134" s="187"/>
+      <c r="F134" s="187"/>
+      <c r="G134" s="187"/>
+      <c r="H134" s="187"/>
+      <c r="I134" s="187"/>
+      <c r="J134" s="187"/>
+      <c r="K134" s="336" t="s">
+        <v>54</v>
+      </c>
+      <c r="L134" s="360"/>
+      <c r="M134" s="361"/>
+      <c r="N134" s="187"/>
+      <c r="O134" s="187"/>
+      <c r="P134" s="187"/>
+      <c r="Q134" s="252"/>
+    </row>
+    <row r="135" spans="1:17">
+      <c r="A135" s="338"/>
+      <c r="B135" s="211"/>
+      <c r="C135" s="210"/>
+      <c r="D135" s="211"/>
+      <c r="E135" s="211"/>
+      <c r="F135" s="211"/>
+      <c r="G135" s="211"/>
+      <c r="H135" s="211"/>
+      <c r="I135" s="211"/>
+      <c r="J135" s="211"/>
+      <c r="K135" s="338"/>
+      <c r="L135" s="362"/>
+      <c r="M135" s="211"/>
+      <c r="N135" s="211"/>
+      <c r="O135" s="211"/>
+      <c r="P135" s="211"/>
+      <c r="Q135" s="310"/>
+    </row>
+    <row r="136" spans="1:17">
+      <c r="A136" s="339" t="s">
+        <v>55</v>
+      </c>
+      <c r="B136" s="213"/>
+      <c r="C136" s="340"/>
+      <c r="D136" s="213"/>
+      <c r="E136" s="213"/>
+      <c r="F136" s="213"/>
+      <c r="G136" s="213"/>
+      <c r="H136" s="213"/>
+      <c r="I136" s="213"/>
+      <c r="J136" s="213"/>
+      <c r="K136" s="363" t="s">
+        <v>55</v>
+      </c>
+      <c r="L136" s="364"/>
+      <c r="M136" s="365"/>
+      <c r="N136" s="213"/>
+      <c r="O136" s="213"/>
+      <c r="P136" s="213"/>
+      <c r="Q136" s="311"/>
+    </row>
+    <row r="137" spans="1:17">
+      <c r="A137" s="338"/>
+      <c r="B137" s="211"/>
+      <c r="C137" s="210"/>
+      <c r="D137" s="211"/>
+      <c r="E137" s="211"/>
+      <c r="F137" s="211"/>
+      <c r="G137" s="211"/>
+      <c r="H137" s="211"/>
+      <c r="I137" s="211"/>
+      <c r="J137" s="211"/>
+      <c r="K137" s="338"/>
+      <c r="L137" s="362"/>
+      <c r="M137" s="211"/>
+      <c r="N137" s="211"/>
+      <c r="O137" s="211"/>
+      <c r="P137" s="211"/>
+      <c r="Q137" s="310"/>
+    </row>
+    <row r="138" ht="20.25" spans="1:17">
+      <c r="A138" s="339" t="s">
+        <v>56</v>
+      </c>
+      <c r="B138" s="213"/>
+      <c r="C138" s="341" t="s">
+        <v>57</v>
+      </c>
+      <c r="D138" s="213"/>
+      <c r="E138" s="213"/>
+      <c r="F138" s="213"/>
+      <c r="G138" s="213"/>
+      <c r="H138" s="213"/>
+      <c r="I138" s="213"/>
+      <c r="J138" s="311"/>
+      <c r="K138" s="363" t="s">
+        <v>56</v>
+      </c>
+      <c r="L138" s="364"/>
+      <c r="M138" s="341" t="s">
+        <v>58</v>
+      </c>
+      <c r="N138" s="213"/>
+      <c r="O138" s="213"/>
+      <c r="P138" s="213"/>
+      <c r="Q138" s="311"/>
+    </row>
+    <row r="139" ht="20.25" spans="1:17">
+      <c r="A139" s="200"/>
+      <c r="B139" s="193"/>
+      <c r="C139" s="342" t="s">
+        <v>59</v>
+      </c>
+      <c r="D139" s="211"/>
+      <c r="E139" s="211"/>
+      <c r="F139" s="211"/>
+      <c r="G139" s="211"/>
+      <c r="H139" s="211"/>
+      <c r="I139" s="211"/>
+      <c r="J139" s="211"/>
+      <c r="K139" s="200"/>
+      <c r="L139" s="366"/>
+      <c r="M139" s="367" t="s">
+        <v>60</v>
+      </c>
+      <c r="N139" s="211"/>
+      <c r="O139" s="211"/>
+      <c r="P139" s="211"/>
+      <c r="Q139" s="310"/>
+    </row>
+    <row r="140" spans="1:17">
+      <c r="A140" s="343" t="s">
+        <v>61</v>
+      </c>
+      <c r="B140" s="213"/>
+      <c r="C140" s="344"/>
+      <c r="D140" s="213"/>
+      <c r="E140" s="213"/>
+      <c r="F140" s="213"/>
+      <c r="G140" s="213"/>
+      <c r="H140" s="213"/>
+      <c r="I140" s="213"/>
+      <c r="J140" s="213"/>
+      <c r="K140" s="343" t="s">
+        <v>61</v>
+      </c>
+      <c r="L140" s="364"/>
+      <c r="M140" s="368"/>
+      <c r="N140" s="213"/>
+      <c r="O140" s="213"/>
+      <c r="P140" s="213"/>
+      <c r="Q140" s="311"/>
+    </row>
+    <row r="141" ht="15.75" spans="1:17">
+      <c r="A141" s="204"/>
+      <c r="B141" s="205"/>
+      <c r="C141" s="215"/>
+      <c r="D141" s="205"/>
+      <c r="E141" s="205"/>
+      <c r="F141" s="205"/>
+      <c r="G141" s="205"/>
+      <c r="H141" s="205"/>
+      <c r="I141" s="205"/>
+      <c r="J141" s="205"/>
+      <c r="K141" s="204"/>
+      <c r="L141" s="304"/>
+      <c r="M141" s="205"/>
+      <c r="N141" s="205"/>
+      <c r="O141" s="205"/>
+      <c r="P141" s="205"/>
+      <c r="Q141" s="316"/>
+    </row>
+    <row r="142" ht="15.75" spans="1:17">
+      <c r="A142" s="237" t="s">
+        <v>62</v>
+      </c>
+      <c r="B142" s="345" t="s">
+        <v>63</v>
+      </c>
+      <c r="C142" s="217"/>
+      <c r="D142" s="217"/>
+      <c r="E142" s="217"/>
+      <c r="F142" s="217"/>
+      <c r="G142" s="217"/>
+      <c r="H142" s="217"/>
+      <c r="I142" s="217"/>
+      <c r="J142" s="217"/>
+      <c r="K142" s="217"/>
+      <c r="L142" s="217"/>
+      <c r="M142" s="217"/>
+      <c r="N142" s="217"/>
+      <c r="O142" s="267"/>
+      <c r="P142" s="369" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q142" s="376"/>
+    </row>
+    <row r="143" ht="15.75" spans="1:17">
+      <c r="A143" s="346" t="s">
+        <v>65</v>
+      </c>
+      <c r="B143" s="213"/>
+      <c r="C143" s="273" t="s">
+        <v>79</v>
+      </c>
+      <c r="D143" s="213"/>
+      <c r="E143" s="213"/>
+      <c r="F143" s="213"/>
+      <c r="G143" s="213"/>
+      <c r="H143" s="213"/>
+      <c r="I143" s="364"/>
+      <c r="J143" s="370" t="s">
+        <v>66</v>
+      </c>
+      <c r="K143" s="371" t="s">
+        <v>67</v>
+      </c>
+      <c r="L143" s="213"/>
+      <c r="M143" s="213"/>
+      <c r="N143" s="213"/>
+      <c r="O143" s="364"/>
+      <c r="P143" s="372" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q143" s="256"/>
+    </row>
+    <row r="144" ht="18" spans="1:17">
+      <c r="A144" s="338"/>
+      <c r="B144" s="211"/>
+      <c r="C144" s="210"/>
+      <c r="D144" s="211"/>
+      <c r="E144" s="211"/>
+      <c r="F144" s="211"/>
+      <c r="G144" s="211"/>
+      <c r="H144" s="211"/>
+      <c r="I144" s="362"/>
+      <c r="J144" s="210"/>
+      <c r="K144" s="373"/>
+      <c r="L144" s="211"/>
+      <c r="M144" s="211"/>
+      <c r="N144" s="211"/>
+      <c r="O144" s="362"/>
+      <c r="P144" s="210"/>
+      <c r="Q144" s="310"/>
+    </row>
+    <row r="145" ht="15.75" spans="1:17">
+      <c r="A145" s="346" t="s">
+        <v>69</v>
+      </c>
+      <c r="B145" s="213"/>
+      <c r="C145" s="273"/>
+      <c r="D145" s="213"/>
+      <c r="E145" s="213"/>
+      <c r="F145" s="213"/>
+      <c r="G145" s="213"/>
+      <c r="H145" s="213"/>
+      <c r="I145" s="364"/>
+      <c r="J145" s="370" t="s">
+        <v>66</v>
+      </c>
+      <c r="K145" s="371" t="s">
+        <v>70</v>
+      </c>
+      <c r="L145" s="213"/>
+      <c r="M145" s="213"/>
+      <c r="N145" s="213"/>
+      <c r="O145" s="364"/>
+      <c r="P145" s="271" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q145" s="377"/>
+    </row>
+    <row r="146" ht="15.75" spans="1:17">
+      <c r="A146" s="338"/>
+      <c r="B146" s="211"/>
+      <c r="C146" s="210"/>
+      <c r="D146" s="211"/>
+      <c r="E146" s="211"/>
+      <c r="F146" s="211"/>
+      <c r="G146" s="211"/>
+      <c r="H146" s="211"/>
+      <c r="I146" s="362"/>
+      <c r="J146" s="210"/>
+      <c r="K146" s="374"/>
+      <c r="L146" s="211"/>
+      <c r="M146" s="211"/>
+      <c r="N146" s="211"/>
+      <c r="O146" s="362"/>
+      <c r="P146" s="372" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q146" s="256"/>
+    </row>
+    <row r="147" ht="16.5" spans="1:17">
+      <c r="A147" s="347" t="s">
+        <v>71</v>
+      </c>
+      <c r="B147" s="348"/>
+      <c r="C147" s="348"/>
+      <c r="D147" s="348"/>
+      <c r="E147" s="348"/>
+      <c r="F147" s="348"/>
+      <c r="G147" s="348"/>
+      <c r="H147" s="348"/>
+      <c r="I147" s="348"/>
+      <c r="J147" s="348"/>
+      <c r="K147" s="348"/>
+      <c r="L147" s="348"/>
+      <c r="M147" s="348"/>
+      <c r="N147" s="348"/>
+      <c r="O147" s="375"/>
+      <c r="P147" s="215"/>
+      <c r="Q147" s="316"/>
+    </row>
+    <row r="148" ht="15.75" spans="1:17">
+      <c r="A148" s="349"/>
+      <c r="B148" s="191"/>
+      <c r="C148" s="191"/>
+      <c r="D148" s="191"/>
+      <c r="E148" s="191"/>
+      <c r="F148" s="191"/>
+      <c r="G148" s="191"/>
+      <c r="H148" s="191"/>
+      <c r="I148" s="191"/>
+      <c r="J148" s="191"/>
+      <c r="K148" s="191"/>
+      <c r="L148" s="191"/>
+      <c r="M148" s="191"/>
+      <c r="N148" s="191"/>
+      <c r="O148" s="191"/>
+      <c r="P148" s="192"/>
+      <c r="Q148" s="192"/>
+    </row>
+    <row r="149" ht="15.75" spans="1:17">
+      <c r="A149" s="349"/>
+      <c r="B149" s="191"/>
+      <c r="C149" s="191"/>
+      <c r="D149" s="191"/>
+      <c r="E149" s="191"/>
+      <c r="F149" s="191"/>
+      <c r="G149" s="191"/>
+      <c r="H149" s="191"/>
+      <c r="I149" s="191"/>
+      <c r="J149" s="191"/>
+      <c r="K149" s="191"/>
+      <c r="L149" s="191"/>
+      <c r="M149" s="191"/>
+      <c r="N149" s="191"/>
+      <c r="O149" s="191"/>
+      <c r="P149" s="192"/>
+      <c r="Q149" s="192"/>
+    </row>
+    <row r="150" ht="15.75" spans="1:17">
+      <c r="A150" s="349"/>
+      <c r="B150" s="191"/>
+      <c r="C150" s="191"/>
+      <c r="D150" s="191"/>
+      <c r="E150" s="191"/>
+      <c r="F150" s="191"/>
+      <c r="G150" s="191"/>
+      <c r="H150" s="191"/>
+      <c r="I150" s="191"/>
+      <c r="J150" s="191"/>
+      <c r="K150" s="191"/>
+      <c r="L150" s="191"/>
+      <c r="M150" s="191"/>
+      <c r="N150" s="191"/>
+      <c r="O150" s="191"/>
+      <c r="P150" s="192"/>
+      <c r="Q150" s="192"/>
+    </row>
+    <row r="151" ht="15.75" spans="1:17">
+      <c r="A151" s="349"/>
+      <c r="B151" s="191"/>
+      <c r="C151" s="191"/>
+      <c r="D151" s="191"/>
+      <c r="E151" s="191"/>
+      <c r="F151" s="191"/>
+      <c r="G151" s="191"/>
+      <c r="H151" s="191"/>
+      <c r="I151" s="191"/>
+      <c r="J151" s="191"/>
+      <c r="K151" s="191"/>
+      <c r="L151" s="191"/>
+      <c r="M151" s="191"/>
+      <c r="N151" s="191"/>
+      <c r="O151" s="191"/>
+      <c r="P151" s="192"/>
+      <c r="Q151" s="192"/>
+    </row>
+    <row r="152" ht="15.75" spans="1:17">
+      <c r="A152" s="350"/>
+      <c r="B152" s="203"/>
+      <c r="C152" s="203"/>
+      <c r="D152" s="203"/>
+      <c r="E152" s="203"/>
+      <c r="F152" s="203"/>
+      <c r="G152" s="203"/>
+      <c r="H152" s="203"/>
+      <c r="I152" s="203"/>
+      <c r="J152" s="203"/>
+      <c r="K152" s="203"/>
+      <c r="L152" s="203"/>
+      <c r="M152" s="203"/>
+      <c r="N152" s="203"/>
+      <c r="O152" s="203"/>
+      <c r="P152" s="203"/>
+      <c r="Q152" s="203"/>
+    </row>
+    <row r="153" spans="1:17">
+      <c r="A153" s="351"/>
+      <c r="B153" s="352"/>
+      <c r="C153" s="352"/>
+      <c r="D153" s="352"/>
+      <c r="E153" s="352"/>
+      <c r="F153" s="352"/>
+      <c r="G153" s="352"/>
+      <c r="H153" s="352"/>
+      <c r="I153" s="352"/>
+      <c r="J153" s="352"/>
+      <c r="K153" s="352"/>
+      <c r="L153" s="352"/>
+      <c r="M153" s="352"/>
+      <c r="N153" s="352"/>
+      <c r="O153" s="352"/>
+      <c r="P153" s="352"/>
+      <c r="Q153" s="352"/>
+    </row>
+    <row r="154" spans="1:17">
+      <c r="A154" s="351"/>
+      <c r="B154" s="352"/>
+      <c r="C154" s="352"/>
+      <c r="D154" s="352"/>
+      <c r="E154" s="352"/>
+      <c r="F154" s="352"/>
+      <c r="G154" s="352"/>
+      <c r="H154" s="352"/>
+      <c r="I154" s="352"/>
+      <c r="J154" s="352"/>
+      <c r="K154" s="352"/>
+      <c r="L154" s="352"/>
+      <c r="M154" s="352"/>
+      <c r="N154" s="352"/>
+      <c r="O154" s="352"/>
+      <c r="P154" s="352"/>
+      <c r="Q154" s="352"/>
+    </row>
+    <row r="155" spans="1:17">
+      <c r="A155" s="353"/>
+      <c r="B155" s="352"/>
+      <c r="C155" s="352"/>
+      <c r="D155" s="352"/>
+      <c r="E155" s="352"/>
+      <c r="F155" s="352"/>
+      <c r="G155" s="352"/>
+      <c r="H155" s="352"/>
+      <c r="I155" s="352"/>
+      <c r="J155" s="352"/>
+      <c r="K155" s="352"/>
+      <c r="L155" s="352"/>
+      <c r="M155" s="352"/>
+      <c r="N155" s="352"/>
+      <c r="O155" s="352"/>
+      <c r="P155" s="352"/>
+      <c r="Q155" s="352"/>
+    </row>
+    <row r="156" spans="1:17">
+      <c r="A156" s="354"/>
+      <c r="B156" s="355"/>
+      <c r="C156" s="352"/>
+      <c r="D156" s="352"/>
+      <c r="E156" s="352"/>
+      <c r="F156" s="352"/>
+      <c r="G156" s="352"/>
+      <c r="H156" s="352"/>
+      <c r="I156" s="352"/>
+      <c r="J156" s="352"/>
+      <c r="K156" s="352"/>
+      <c r="L156" s="352"/>
+      <c r="M156" s="352"/>
+      <c r="N156" s="352"/>
+      <c r="O156" s="352"/>
+      <c r="P156" s="352"/>
+      <c r="Q156" s="352"/>
+    </row>
+    <row r="157" spans="1:17">
+      <c r="A157" s="354"/>
+      <c r="B157" s="355"/>
+      <c r="C157" s="352"/>
+      <c r="D157" s="352"/>
+      <c r="E157" s="352"/>
+      <c r="F157" s="352"/>
+      <c r="G157" s="352"/>
+      <c r="H157" s="352"/>
+      <c r="I157" s="352"/>
+      <c r="J157" s="352"/>
+      <c r="K157" s="352"/>
+      <c r="L157" s="352"/>
+      <c r="M157" s="352"/>
+      <c r="N157" s="352"/>
+      <c r="O157" s="352"/>
+      <c r="P157" s="352"/>
+      <c r="Q157" s="352"/>
+    </row>
+    <row r="158" spans="1:17">
+      <c r="A158" s="354"/>
+      <c r="B158" s="355"/>
+      <c r="C158" s="352"/>
+      <c r="D158" s="352"/>
+      <c r="E158" s="352"/>
+      <c r="F158" s="352"/>
+      <c r="G158" s="352"/>
+      <c r="H158" s="352"/>
+      <c r="I158" s="352"/>
+      <c r="J158" s="352"/>
+      <c r="K158" s="352"/>
+      <c r="L158" s="352"/>
+      <c r="M158" s="352"/>
+      <c r="N158" s="352"/>
+      <c r="O158" s="352"/>
+      <c r="P158" s="352"/>
+      <c r="Q158" s="352"/>
+    </row>
+    <row r="159" spans="1:17">
+      <c r="A159" s="356"/>
+      <c r="B159" s="355"/>
+      <c r="C159" s="352"/>
+      <c r="D159" s="352"/>
+      <c r="E159" s="352"/>
+      <c r="F159" s="352"/>
+      <c r="G159" s="352"/>
+      <c r="H159" s="352"/>
+      <c r="I159" s="352"/>
+      <c r="J159" s="352"/>
+      <c r="K159" s="352"/>
+      <c r="L159" s="352"/>
+      <c r="M159" s="352"/>
+      <c r="N159" s="352"/>
+      <c r="O159" s="352"/>
+      <c r="P159" s="352"/>
+      <c r="Q159" s="352"/>
+    </row>
+    <row r="160" spans="1:17">
+      <c r="A160" s="357"/>
+      <c r="B160" s="357"/>
+      <c r="C160" s="357"/>
+      <c r="D160" s="357"/>
+      <c r="E160" s="357"/>
+      <c r="F160" s="357"/>
+      <c r="G160" s="357"/>
+      <c r="H160" s="357"/>
+      <c r="I160" s="357"/>
+      <c r="J160" s="357"/>
+      <c r="K160" s="357"/>
+      <c r="L160" s="357"/>
+      <c r="M160" s="357"/>
+      <c r="N160" s="357"/>
+      <c r="O160" s="357"/>
+      <c r="P160" s="357"/>
+      <c r="Q160" s="357"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
+  <mergeCells count="170">
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="P1:Q1"/>
     <mergeCell ref="P2:Q2"/>
@@ -5517,8 +8619,70 @@
     <mergeCell ref="K68:O68"/>
     <mergeCell ref="K69:O69"/>
     <mergeCell ref="A70:O70"/>
+    <mergeCell ref="A87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="D89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="D90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="D91:O91"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="A93:O93"/>
+    <mergeCell ref="C94:Q94"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="K96:L96"/>
+    <mergeCell ref="K97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="K98:O98"/>
+    <mergeCell ref="P98:Q98"/>
+    <mergeCell ref="A101:J101"/>
+    <mergeCell ref="K101:L101"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="P101:Q101"/>
+    <mergeCell ref="K103:L103"/>
+    <mergeCell ref="C109:D109"/>
+    <mergeCell ref="G109:I109"/>
+    <mergeCell ref="C110:D110"/>
+    <mergeCell ref="G110:I110"/>
+    <mergeCell ref="C111:D111"/>
+    <mergeCell ref="G111:I111"/>
+    <mergeCell ref="C112:D112"/>
+    <mergeCell ref="G112:I112"/>
+    <mergeCell ref="C113:D113"/>
+    <mergeCell ref="G113:I113"/>
+    <mergeCell ref="C114:I114"/>
+    <mergeCell ref="A116:J116"/>
+    <mergeCell ref="B117:Q117"/>
+    <mergeCell ref="A122:Q122"/>
+    <mergeCell ref="A123:Q123"/>
+    <mergeCell ref="A125:J125"/>
+    <mergeCell ref="K125:M125"/>
+    <mergeCell ref="B126:J126"/>
+    <mergeCell ref="K126:M126"/>
+    <mergeCell ref="N126:P126"/>
+    <mergeCell ref="B127:J127"/>
+    <mergeCell ref="K127:M127"/>
+    <mergeCell ref="N127:P127"/>
+    <mergeCell ref="B128:J128"/>
+    <mergeCell ref="K128:M128"/>
+    <mergeCell ref="B129:J129"/>
+    <mergeCell ref="L129:Q129"/>
+    <mergeCell ref="C138:J138"/>
+    <mergeCell ref="M138:Q138"/>
+    <mergeCell ref="C139:J139"/>
+    <mergeCell ref="M139:Q139"/>
+    <mergeCell ref="B142:O142"/>
+    <mergeCell ref="K143:O143"/>
+    <mergeCell ref="K144:O144"/>
+    <mergeCell ref="K145:O145"/>
+    <mergeCell ref="K146:O146"/>
+    <mergeCell ref="A147:O147"/>
     <mergeCell ref="J66:J67"/>
     <mergeCell ref="J68:J69"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="J145:J146"/>
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:J12"/>
@@ -5546,6 +8710,33 @@
     <mergeCell ref="A68:B69"/>
     <mergeCell ref="C68:I69"/>
     <mergeCell ref="P69:Q70"/>
+    <mergeCell ref="A94:B96"/>
+    <mergeCell ref="A97:B98"/>
+    <mergeCell ref="C97:J98"/>
+    <mergeCell ref="A99:B100"/>
+    <mergeCell ref="C99:Q100"/>
+    <mergeCell ref="A102:J108"/>
+    <mergeCell ref="K130:Q133"/>
+    <mergeCell ref="A134:B135"/>
+    <mergeCell ref="K134:L135"/>
+    <mergeCell ref="C134:J135"/>
+    <mergeCell ref="M134:Q135"/>
+    <mergeCell ref="A136:B137"/>
+    <mergeCell ref="K136:L137"/>
+    <mergeCell ref="C136:J137"/>
+    <mergeCell ref="M136:Q137"/>
+    <mergeCell ref="A138:B139"/>
+    <mergeCell ref="K138:L139"/>
+    <mergeCell ref="A140:B141"/>
+    <mergeCell ref="K140:L141"/>
+    <mergeCell ref="C140:J141"/>
+    <mergeCell ref="M140:Q141"/>
+    <mergeCell ref="A143:B144"/>
+    <mergeCell ref="C143:I144"/>
+    <mergeCell ref="P143:Q144"/>
+    <mergeCell ref="A145:B146"/>
+    <mergeCell ref="C145:I146"/>
+    <mergeCell ref="P146:Q147"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
